--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ihh-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ihh-Cdon.xlsx
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.085919666666667</v>
+        <v>2.679174</v>
       </c>
       <c r="N2">
-        <v>3.257759</v>
+        <v>8.037521999999999</v>
       </c>
       <c r="O2">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="P2">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="Q2">
-        <v>0.07386063599444445</v>
+        <v>0.1822284849</v>
       </c>
       <c r="R2">
-        <v>0.6647457239500001</v>
+        <v>1.6400563641</v>
       </c>
       <c r="S2">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="T2">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>67.35928799999999</v>
       </c>
       <c r="O3">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531156</v>
       </c>
       <c r="P3">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531155</v>
       </c>
       <c r="Q3">
         <v>1.527184746266667</v>
@@ -635,10 +635,10 @@
         <v>13.7446627164</v>
       </c>
       <c r="S3">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531156</v>
       </c>
       <c r="T3">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531155</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.15600466666667</v>
+        <v>65.67046766666668</v>
       </c>
       <c r="N4">
-        <v>174.468014</v>
+        <v>197.011403</v>
       </c>
       <c r="O4">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207682</v>
       </c>
       <c r="P4">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207681</v>
       </c>
       <c r="Q4">
-        <v>3.955577584077778</v>
+        <v>4.466686309127779</v>
       </c>
       <c r="R4">
-        <v>35.6001982567</v>
+        <v>40.20017678215001</v>
       </c>
       <c r="S4">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207682</v>
       </c>
       <c r="T4">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05304933333333334</v>
+        <v>0.2535676666666667</v>
       </c>
       <c r="N5">
-        <v>0.159148</v>
+        <v>0.760703</v>
       </c>
       <c r="O5">
-        <v>0.0006489368317765253</v>
+        <v>0.002784734848821526</v>
       </c>
       <c r="P5">
-        <v>0.0006489368317765254</v>
+        <v>0.002784734848821525</v>
       </c>
       <c r="Q5">
-        <v>0.003608238822222223</v>
+        <v>0.01724682746111111</v>
       </c>
       <c r="R5">
-        <v>0.03247414940000001</v>
+        <v>0.15522144715</v>
       </c>
       <c r="S5">
-        <v>0.0006489368317765253</v>
+        <v>0.002784734848821526</v>
       </c>
       <c r="T5">
-        <v>0.0006489368317765254</v>
+        <v>0.002784734848821525</v>
       </c>
     </row>
   </sheetData>
